--- a/biology/Botanique/Cercospora_zeae-maydis/Cercospora_zeae-maydis.xlsx
+++ b/biology/Botanique/Cercospora_zeae-maydis/Cercospora_zeae-maydis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercospora zeae-maydis est une espèce de champignons ascomycètes de la famille des Mycosphaerellaceae. 
-Ce champignon phytopathogène est, conjointement avec Cercospora zeina, l'agent de la maladie des taches grises du maïs (ou cercosporiose du maïs, connue en anglais sous le nom de grey leaf spot disease)[1].
+Ce champignon phytopathogène est, conjointement avec Cercospora zeina, l'agent de la maladie des taches grises du maïs (ou cercosporiose du maïs, connue en anglais sous le nom de grey leaf spot disease).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 juin 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 juin 2015) :
 non-classé Cercospora zeae-maydis SCOH1-5</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cercospora zeae-maydis Tehon &amp; E.Y. Daniels, 1925[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cercospora zeae-maydis Tehon &amp; E.Y. Daniels, 1925,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, zeae-maydis, fait référence au maïs dont le nom scientifique est Zea mays[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, zeae-maydis, fait référence au maïs dont le nom scientifique est Zea mays.
 </t>
         </is>
       </c>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
